--- a/bag_of_words.xlsx
+++ b/bag_of_words.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\flashcard_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AFB6FB-DD18-41C1-B7D8-47C7650B3009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BA7B52-6342-4F56-805F-B687DDDBAECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="615">
   <si>
     <t xml:space="preserve">schlagartig </t>
   </si>
@@ -957,922 +968,919 @@
     <t>schütteln</t>
   </si>
   <si>
-    <t xml:space="preserve"> tinazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simeiosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stroma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksigisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simeiono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poiisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> agnotita</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksaitias tis thelisis tous</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> protimisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epimaxos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thiriodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sinanto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> akrotiriasmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kakopoios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tromaktikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thanatiki poini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kakos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pathaino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vlaveros</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katanomi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksontosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> provallo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katastrefo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paidagogikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apeikonisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kataskevi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fronimada</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> themelidodeis arxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> endiksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> metadido</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prokipto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arnoume</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pasxo apo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> alazoneia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipofero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ensomatono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> koveis kati apo kati allo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lineis kati</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diorthono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> idea</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stasimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> periorismos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gigantiaios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eparkis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simpsifizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kathilotiki timi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kati ginetai moda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paraitoumai apo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prosarto afthaireta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antilipsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stil anaptiksis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sindromo kanonikotitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i parakmi tou ekpaideftikou sistimatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tropopoio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kataktisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> domi kiriarxias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> morfes kiriarxias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epoxi tis anthropotitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ploutos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trefetai apo ton polemo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Erotisi ti ekane prote to avgo i i kota</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epanastasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to perivallon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> omologo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antitithemai se kati</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> viaii anamiksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipotheseis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksairesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ekprosopos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pesftikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ksekatharos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paraviasi tis arxis mi anamiksis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ksekathari paraviasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sinipaitiotita</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paranomes paremvaseis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nikitries dinameis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipo amerikaniki piesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> valkaniki xersoniso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> molonoti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anametrisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apofigi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> na apotrepso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aprosmena</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epidioksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simmetexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> me anisixei vathitata</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sigxronos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i diafilaksi tis eirinis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i prospatheia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aplono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epekteino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipotagi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksoplismos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apeilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> idiaitera amfivolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> i gnomi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "dikaiologimenos"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anoteros eksoplismos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arithmitiki meioneksia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ektimisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mou einai amfivoli i stratigiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anapofefktos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> klirosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katastrofi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apomakrinsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prokalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vasiki aksia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apotixia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> itta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prothesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> logiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prospatho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exthros</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antipalos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kathoristikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> efarmogi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ftoxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dio ennoies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poliprismatikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amfivolos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> en opsei tis modas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> asxoloumai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> etoimotita gia via</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kirios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elatirio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ta vazoume kato apo to xali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> genikevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vgazo apo tin riza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antilamvanomai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apodiknio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epikratesteros</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sissorefsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> niotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> parola afta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> klisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iperniko</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> krimmenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prosarmogi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> provoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ekpaidevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> perioxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tharraleos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diafilasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flertaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> en to metaksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> periplokos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prodido</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> proelefsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ksafnika</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> magevei</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maziki anergia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xreokopimenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elaxistos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mellontikes anisixies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epikeitai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ellipsi prosopikou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ptosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> provlepomenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ta parapona</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> metanastis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> laos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xores proorismou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> esfalmeni entiposi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gennaiodoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anaksiopistos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksorgizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diktatoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> piezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deixno</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tsimpo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prizomai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kleino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> palevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apofevgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epimeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sinedriasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xthesinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> entiposiazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diarriktis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> oplo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apogonos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ekdotikos oikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sigxairo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paralisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pliroforoumai gia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anakampto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> poini filakisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kourasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aperiskeptos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> proetoimasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pragmatognomosini</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anatheto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> entoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> martiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diermineas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> glossa ton kofalalon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> perikopi misthou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dioxno</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stelno esokleisto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> parapempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kentri</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anagki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stelno emvasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> allazo thesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sapizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to na eisai kataramenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ithiki sapila</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kakomathaino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katofli</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sto katofli mias neas epoxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ftoxes xores</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> etoimopolemos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amfitalantevomai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meta apo esoteriki maxi kataligo se</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epitigxano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katorthoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> triftis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> isofarizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> astheneia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simponoia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sillipitiria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> malakos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> afto pou lionei</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> erxomai sto nou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ekmetallefsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apokleio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apetigxan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apoxaireto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kata meso oro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kalodexoumenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nomos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> monadikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> monadikotita</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tetoiou eidous</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> skia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kolakeftikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> entonos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> allazo thema</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> adika</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> simvolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> skoteinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sindiazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apokalipto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diasafinizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> psixi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> krivo apo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apodeiknio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ektimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> evnoia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kalipto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amoivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kserizono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> meiono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anileos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apokto me polles thisies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> litos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sinithismenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> skontafto se</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> omoioma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> metriazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drapetevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antigrafo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sinarmologo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipodexomai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> diapratto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amfisvito</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epeigei</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> efthinomai gia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antistekomai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> me noiazei</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dixazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anevazei sta ipsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plithaino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apotigxano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anamfisvititos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> evporos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> psomaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "plasma"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sinolo metaforon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> katorthono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kolakeftiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prospoiitikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ipokrinomai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ekdiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antipoina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pazarevo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lathos simperasma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deilos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aprosextos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ensomatosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stereos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sxesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sxesi ergasias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> armodio grafeio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sindikato</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksairetikos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pososto epitixias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dioikitis tis arxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eksartimenos</t>
+    <t>xores proorismou</t>
+  </si>
+  <si>
+    <t>esfalmeni entiposi</t>
+  </si>
+  <si>
+    <t>simeiosi</t>
+  </si>
+  <si>
+    <t>stroma</t>
+  </si>
+  <si>
+    <t>eksigisi</t>
+  </si>
+  <si>
+    <t>simeiono</t>
+  </si>
+  <si>
+    <t>poiisi</t>
+  </si>
+  <si>
+    <t>agnotita</t>
+  </si>
+  <si>
+    <t>eksaitias tis thelisis tous</t>
+  </si>
+  <si>
+    <t>protimisi</t>
+  </si>
+  <si>
+    <t>epimaxos</t>
+  </si>
+  <si>
+    <t>thiriodia</t>
+  </si>
+  <si>
+    <t>sinanto</t>
+  </si>
+  <si>
+    <t>akrotiriasmos</t>
+  </si>
+  <si>
+    <t>kakopoios</t>
+  </si>
+  <si>
+    <t>tromaktikos</t>
+  </si>
+  <si>
+    <t>thanatiki poini</t>
+  </si>
+  <si>
+    <t>kakos</t>
+  </si>
+  <si>
+    <t>pathaino</t>
+  </si>
+  <si>
+    <t>vlaveros</t>
+  </si>
+  <si>
+    <t>katanomi</t>
+  </si>
+  <si>
+    <t>eksontosi</t>
+  </si>
+  <si>
+    <t>provallo</t>
+  </si>
+  <si>
+    <t>katastrefo</t>
+  </si>
+  <si>
+    <t>paidagogikos</t>
+  </si>
+  <si>
+    <t>apeikonisi</t>
+  </si>
+  <si>
+    <t>kataskevi</t>
+  </si>
+  <si>
+    <t>fronimada</t>
+  </si>
+  <si>
+    <t>themelidodeis arxes</t>
+  </si>
+  <si>
+    <t>endiksi</t>
+  </si>
+  <si>
+    <t>metadido</t>
+  </si>
+  <si>
+    <t>prokipto</t>
+  </si>
+  <si>
+    <t>arnoume</t>
+  </si>
+  <si>
+    <t>tinazo</t>
+  </si>
+  <si>
+    <t>eksartimenos</t>
+  </si>
+  <si>
+    <t>anileos</t>
+  </si>
+  <si>
+    <t>dioikitis tis arxis</t>
+  </si>
+  <si>
+    <t>pososto epitixias</t>
+  </si>
+  <si>
+    <t>eksairetikos</t>
+  </si>
+  <si>
+    <t>sindikato</t>
+  </si>
+  <si>
+    <t>armodio grafeio</t>
+  </si>
+  <si>
+    <t>sxesi ergasias</t>
+  </si>
+  <si>
+    <t>sxesi</t>
+  </si>
+  <si>
+    <t>stereos</t>
+  </si>
+  <si>
+    <t>ensomatosi</t>
+  </si>
+  <si>
+    <t>aprosextos</t>
+  </si>
+  <si>
+    <t>deilos</t>
+  </si>
+  <si>
+    <t>lathos simperasma</t>
+  </si>
+  <si>
+    <t>pazarevo</t>
+  </si>
+  <si>
+    <t>antipoina</t>
+  </si>
+  <si>
+    <t>ekdiko</t>
+  </si>
+  <si>
+    <t>ipokrinomai</t>
+  </si>
+  <si>
+    <t>plasma</t>
+  </si>
+  <si>
+    <t>sinolo metaforon</t>
+  </si>
+  <si>
+    <t>katorthono</t>
+  </si>
+  <si>
+    <t>kolakeftiko</t>
+  </si>
+  <si>
+    <t>prospoiitikos</t>
+  </si>
+  <si>
+    <t>psomaki</t>
+  </si>
+  <si>
+    <t>evporos</t>
+  </si>
+  <si>
+    <t>anamfisvititos</t>
+  </si>
+  <si>
+    <t>apotigxano</t>
+  </si>
+  <si>
+    <t>plithaino</t>
+  </si>
+  <si>
+    <t>anevazei sta ipsi</t>
+  </si>
+  <si>
+    <t>dixazo</t>
+  </si>
+  <si>
+    <t>me noiazei</t>
+  </si>
+  <si>
+    <t>antistekomai</t>
+  </si>
+  <si>
+    <t>pasxo apo</t>
+  </si>
+  <si>
+    <t>alazoneia</t>
+  </si>
+  <si>
+    <t>ipofero</t>
+  </si>
+  <si>
+    <t>ensomatono</t>
+  </si>
+  <si>
+    <t>koveis kati apo kati allo</t>
+  </si>
+  <si>
+    <t>lineis kati</t>
+  </si>
+  <si>
+    <t>diorthono</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>stasimos</t>
+  </si>
+  <si>
+    <t>periorismos</t>
+  </si>
+  <si>
+    <t>gigantiaios</t>
+  </si>
+  <si>
+    <t>eparkis</t>
+  </si>
+  <si>
+    <t>simpsifizo</t>
+  </si>
+  <si>
+    <t>kathilotiki timi</t>
+  </si>
+  <si>
+    <t>kati ginetai moda</t>
+  </si>
+  <si>
+    <t>paraitoumai apo</t>
+  </si>
+  <si>
+    <t>prosarto afthaireta</t>
+  </si>
+  <si>
+    <t>antilipsi</t>
+  </si>
+  <si>
+    <t>stil anaptiksis</t>
+  </si>
+  <si>
+    <t>sindromo kanonikotitas</t>
+  </si>
+  <si>
+    <t>i parakmi tou ekpaideftikou sistimatos</t>
+  </si>
+  <si>
+    <t>tropopoio</t>
+  </si>
+  <si>
+    <t>kataktisa</t>
+  </si>
+  <si>
+    <t>domi kiriarxias</t>
+  </si>
+  <si>
+    <t>morfes kiriarxias</t>
+  </si>
+  <si>
+    <t>epoxi tis anthropotitas</t>
+  </si>
+  <si>
+    <t>ploutos</t>
+  </si>
+  <si>
+    <t>trefetai apo ton polemo</t>
+  </si>
+  <si>
+    <t>Erotisi ti ekane prote to avgo i i kota</t>
+  </si>
+  <si>
+    <t>epanastasi</t>
+  </si>
+  <si>
+    <t>to perivallon</t>
+  </si>
+  <si>
+    <t>omologo</t>
+  </si>
+  <si>
+    <t>antitithemai se kati</t>
+  </si>
+  <si>
+    <t>viaii anamiksi</t>
+  </si>
+  <si>
+    <t>ipotheseis</t>
+  </si>
+  <si>
+    <t>eksairesi</t>
+  </si>
+  <si>
+    <t>ekprosopos</t>
+  </si>
+  <si>
+    <t>pesftikos</t>
+  </si>
+  <si>
+    <t>ksekatharos</t>
+  </si>
+  <si>
+    <t>paraviasi tis arxis mi anamiksis</t>
+  </si>
+  <si>
+    <t>ksekathari paraviasi</t>
+  </si>
+  <si>
+    <t>sinipaitiotita</t>
+  </si>
+  <si>
+    <t>paranomes paremvaseis</t>
+  </si>
+  <si>
+    <t>nikitries dinameis</t>
+  </si>
+  <si>
+    <t>ipo amerikaniki piesi</t>
+  </si>
+  <si>
+    <t>valkaniki xersoniso</t>
+  </si>
+  <si>
+    <t>molonoti</t>
+  </si>
+  <si>
+    <t>anametrisi</t>
+  </si>
+  <si>
+    <t>apofigi</t>
+  </si>
+  <si>
+    <t>na apotrepso</t>
+  </si>
+  <si>
+    <t>aprosmena</t>
+  </si>
+  <si>
+    <t>epidioksi</t>
+  </si>
+  <si>
+    <t>simmetexo</t>
+  </si>
+  <si>
+    <t>me anisixei vathitata</t>
+  </si>
+  <si>
+    <t>sigxronos</t>
+  </si>
+  <si>
+    <t>i diafilaksi tis eirinis</t>
+  </si>
+  <si>
+    <t>i prospatheia</t>
+  </si>
+  <si>
+    <t>aplono</t>
+  </si>
+  <si>
+    <t>epekteino</t>
+  </si>
+  <si>
+    <t>ipotagi</t>
+  </si>
+  <si>
+    <t>eksoplismos</t>
+  </si>
+  <si>
+    <t>apeilo</t>
+  </si>
+  <si>
+    <t>idiaitera amfivolo</t>
+  </si>
+  <si>
+    <t>i gnomi</t>
+  </si>
+  <si>
+    <t>"dikaiologimenos"</t>
+  </si>
+  <si>
+    <t>anoteros eksoplismos</t>
+  </si>
+  <si>
+    <t>arithmitiki meioneksia</t>
+  </si>
+  <si>
+    <t>ektimisi</t>
+  </si>
+  <si>
+    <t>mou einai amfivoli i stratigiki</t>
+  </si>
+  <si>
+    <t>anapofefktos</t>
+  </si>
+  <si>
+    <t>klirosi</t>
+  </si>
+  <si>
+    <t>katastrofi</t>
+  </si>
+  <si>
+    <t>apomakrinsi</t>
+  </si>
+  <si>
+    <t>prokalo</t>
+  </si>
+  <si>
+    <t>vasiki aksia</t>
+  </si>
+  <si>
+    <t>apotixia</t>
+  </si>
+  <si>
+    <t>itta</t>
+  </si>
+  <si>
+    <t>prothesi</t>
+  </si>
+  <si>
+    <t>logiki</t>
+  </si>
+  <si>
+    <t>prospatho</t>
+  </si>
+  <si>
+    <t>exthros</t>
+  </si>
+  <si>
+    <t>antipalos</t>
+  </si>
+  <si>
+    <t>kathoristikos</t>
+  </si>
+  <si>
+    <t>efarmogi</t>
+  </si>
+  <si>
+    <t>ftoxia</t>
+  </si>
+  <si>
+    <t>dio ennoies</t>
+  </si>
+  <si>
+    <t>poliprismatikos</t>
+  </si>
+  <si>
+    <t>amfivolos</t>
+  </si>
+  <si>
+    <t>en opsei tis modas</t>
+  </si>
+  <si>
+    <t>asxoloumai</t>
+  </si>
+  <si>
+    <t>etoimotita gia via</t>
+  </si>
+  <si>
+    <t>kirios</t>
+  </si>
+  <si>
+    <t>elatirio</t>
+  </si>
+  <si>
+    <t>ta vazoume kato apo to xali</t>
+  </si>
+  <si>
+    <t>genikevo</t>
+  </si>
+  <si>
+    <t>vgazo apo tin riza</t>
+  </si>
+  <si>
+    <t>fisi</t>
+  </si>
+  <si>
+    <t>antilamvanomai</t>
+  </si>
+  <si>
+    <t>apodiknio</t>
+  </si>
+  <si>
+    <t>epikratesteros</t>
+  </si>
+  <si>
+    <t>sissorefsi</t>
+  </si>
+  <si>
+    <t>niotho</t>
+  </si>
+  <si>
+    <t>parola afta</t>
+  </si>
+  <si>
+    <t>klisi</t>
+  </si>
+  <si>
+    <t>iperniko</t>
+  </si>
+  <si>
+    <t>krimmenos</t>
+  </si>
+  <si>
+    <t>prosarmogi</t>
+  </si>
+  <si>
+    <t>provoli</t>
+  </si>
+  <si>
+    <t>ekpaidevo</t>
+  </si>
+  <si>
+    <t>perioxi</t>
+  </si>
+  <si>
+    <t>tharraleos</t>
+  </si>
+  <si>
+    <t>diafilasso</t>
+  </si>
+  <si>
+    <t>flertaro</t>
+  </si>
+  <si>
+    <t>en to metaksi</t>
+  </si>
+  <si>
+    <t>periplokos</t>
+  </si>
+  <si>
+    <t>prodido</t>
+  </si>
+  <si>
+    <t>proelefsi</t>
+  </si>
+  <si>
+    <t>ksafnika</t>
+  </si>
+  <si>
+    <t>magevei</t>
+  </si>
+  <si>
+    <t>maziki anergia</t>
+  </si>
+  <si>
+    <t>xreokopimenos</t>
+  </si>
+  <si>
+    <t>elaxistos</t>
+  </si>
+  <si>
+    <t>mellontikes anisixies</t>
+  </si>
+  <si>
+    <t>epikeitai</t>
+  </si>
+  <si>
+    <t>ellipsi prosopikou</t>
+  </si>
+  <si>
+    <t>ptosi</t>
+  </si>
+  <si>
+    <t>provlepomenos</t>
+  </si>
+  <si>
+    <t>ta parapona</t>
+  </si>
+  <si>
+    <t>metanastis</t>
+  </si>
+  <si>
+    <t>laos</t>
+  </si>
+  <si>
+    <t>gennaiodoria</t>
+  </si>
+  <si>
+    <t>anaksiopistos</t>
+  </si>
+  <si>
+    <t>eksorgizo</t>
+  </si>
+  <si>
+    <t>diktatoria</t>
+  </si>
+  <si>
+    <t>piezo</t>
+  </si>
+  <si>
+    <t>deixno</t>
+  </si>
+  <si>
+    <t>tsimpo</t>
+  </si>
+  <si>
+    <t>xalo</t>
+  </si>
+  <si>
+    <t>prizomai</t>
+  </si>
+  <si>
+    <t>kleino</t>
+  </si>
+  <si>
+    <t>palevo</t>
+  </si>
+  <si>
+    <t>trivo</t>
+  </si>
+  <si>
+    <t>apofevgo</t>
+  </si>
+  <si>
+    <t>epimeno</t>
+  </si>
+  <si>
+    <t>sinedriasi</t>
+  </si>
+  <si>
+    <t>xthesinos</t>
+  </si>
+  <si>
+    <t>entiposiazo</t>
+  </si>
+  <si>
+    <t>diarriktis</t>
+  </si>
+  <si>
+    <t>oplo</t>
+  </si>
+  <si>
+    <t>apogonos</t>
+  </si>
+  <si>
+    <t>ekdotikos oikos</t>
+  </si>
+  <si>
+    <t>sigxairo</t>
+  </si>
+  <si>
+    <t>paralisi</t>
+  </si>
+  <si>
+    <t>pliroforoumai gia</t>
+  </si>
+  <si>
+    <t>anakampto</t>
+  </si>
+  <si>
+    <t>poini filakisis</t>
+  </si>
+  <si>
+    <t>kourasi</t>
+  </si>
+  <si>
+    <t>aperiskeptos</t>
+  </si>
+  <si>
+    <t>proetoimasia</t>
+  </si>
+  <si>
+    <t>pragmatognomosini</t>
+  </si>
+  <si>
+    <t>anatheto</t>
+  </si>
+  <si>
+    <t>entoli</t>
+  </si>
+  <si>
+    <t>martiras</t>
+  </si>
+  <si>
+    <t>diermineas</t>
+  </si>
+  <si>
+    <t>glossa ton kofalalon</t>
+  </si>
+  <si>
+    <t>pano</t>
+  </si>
+  <si>
+    <t>perikopi misthou</t>
+  </si>
+  <si>
+    <t>dioxno</t>
+  </si>
+  <si>
+    <t>stelno esokleisto</t>
+  </si>
+  <si>
+    <t>parapempo</t>
+  </si>
+  <si>
+    <t>kentri</t>
+  </si>
+  <si>
+    <t>anagki</t>
+  </si>
+  <si>
+    <t>stelno emvasma</t>
+  </si>
+  <si>
+    <t>allazo thesi</t>
+  </si>
+  <si>
+    <t>sapizo</t>
+  </si>
+  <si>
+    <t>to na eisai kataramenos</t>
+  </si>
+  <si>
+    <t>ithiki sapila</t>
+  </si>
+  <si>
+    <t>kakomathaino</t>
+  </si>
+  <si>
+    <t>katofli</t>
+  </si>
+  <si>
+    <t>sto katofli mias neas epoxis</t>
+  </si>
+  <si>
+    <t>ftoxes xores</t>
+  </si>
+  <si>
+    <t>etoimopolemos</t>
+  </si>
+  <si>
+    <t>amfitalantevomai</t>
+  </si>
+  <si>
+    <t>meta apo esoteriki maxi kataligo se</t>
+  </si>
+  <si>
+    <t>epitigxano</t>
+  </si>
+  <si>
+    <t>katorthoma</t>
+  </si>
+  <si>
+    <t>triftis</t>
+  </si>
+  <si>
+    <t>trivi</t>
+  </si>
+  <si>
+    <t>lavi</t>
+  </si>
+  <si>
+    <t>isofarizo</t>
+  </si>
+  <si>
+    <t>astheneia</t>
+  </si>
+  <si>
+    <t>simponoia</t>
+  </si>
+  <si>
+    <t>sillipitiria</t>
+  </si>
+  <si>
+    <t>malakos</t>
+  </si>
+  <si>
+    <t>afto pou lionei</t>
+  </si>
+  <si>
+    <t>erxomai sto nou</t>
+  </si>
+  <si>
+    <t>ekmetallefsi</t>
+  </si>
+  <si>
+    <t>apokleio</t>
+  </si>
+  <si>
+    <t>apetigxan</t>
+  </si>
+  <si>
+    <t>apoxaireto</t>
+  </si>
+  <si>
+    <t>kata meso oro</t>
+  </si>
+  <si>
+    <t>kalodexoumenos</t>
+  </si>
+  <si>
+    <t>nomos</t>
+  </si>
+  <si>
+    <t>monadikos</t>
+  </si>
+  <si>
+    <t>monadikotita</t>
+  </si>
+  <si>
+    <t>tetoiou eidous</t>
+  </si>
+  <si>
+    <t>skia</t>
+  </si>
+  <si>
+    <t>kolakeftikos</t>
+  </si>
+  <si>
+    <t>entonos</t>
+  </si>
+  <si>
+    <t>allazo thema</t>
+  </si>
+  <si>
+    <t>adika</t>
+  </si>
+  <si>
+    <t>simvolo</t>
+  </si>
+  <si>
+    <t>skoteinos</t>
+  </si>
+  <si>
+    <t>sindiazo</t>
+  </si>
+  <si>
+    <t>apokalipto</t>
+  </si>
+  <si>
+    <t>diasafinizo</t>
+  </si>
+  <si>
+    <t>psixi</t>
+  </si>
+  <si>
+    <t>krivo apo</t>
+  </si>
+  <si>
+    <t>apodeiknio</t>
+  </si>
+  <si>
+    <t>ektimo</t>
+  </si>
+  <si>
+    <t>evnoia</t>
+  </si>
+  <si>
+    <t>kalipto</t>
+  </si>
+  <si>
+    <t>amoivi</t>
+  </si>
+  <si>
+    <t>kserizono</t>
+  </si>
+  <si>
+    <t>meiono</t>
+  </si>
+  <si>
+    <t>apokto me polles thisies</t>
+  </si>
+  <si>
+    <t>litos</t>
+  </si>
+  <si>
+    <t>sinithismenos</t>
+  </si>
+  <si>
+    <t>skontafto se</t>
+  </si>
+  <si>
+    <t>omoioma</t>
+  </si>
+  <si>
+    <t>metriazo</t>
+  </si>
+  <si>
+    <t>drapetevo</t>
+  </si>
+  <si>
+    <t>antigrafo</t>
+  </si>
+  <si>
+    <t>sinarmologo</t>
+  </si>
+  <si>
+    <t>ipodexomai</t>
+  </si>
+  <si>
+    <t>diapratto</t>
+  </si>
+  <si>
+    <t>amfisvito</t>
+  </si>
+  <si>
+    <t>epeigei</t>
+  </si>
+  <si>
+    <t>efthinomai gia</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2204,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2204,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2212,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2220,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2228,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2236,7 +2245,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2244,7 +2253,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2252,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2260,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2268,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2276,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2284,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2292,7 +2301,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2300,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2308,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2316,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2324,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2332,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2340,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2348,7 +2357,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2356,7 +2365,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2364,7 +2373,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2372,7 +2381,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2380,7 +2389,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2388,7 +2397,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2396,7 +2405,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2404,7 +2413,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2412,7 +2421,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2420,7 +2429,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2428,7 +2437,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2436,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2444,7 +2453,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2452,7 +2461,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2460,7 +2469,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2468,7 +2477,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2476,7 +2485,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2484,7 +2493,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2492,7 +2501,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2500,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2508,7 +2517,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +2525,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2524,7 +2533,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2532,7 +2541,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2540,7 +2549,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2548,7 +2557,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2556,7 +2565,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2564,7 +2573,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2572,7 +2581,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2589,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +2597,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2596,7 +2605,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2604,7 +2613,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2612,7 +2621,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2620,7 +2629,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2628,7 +2637,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2636,7 +2645,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2653,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2652,7 +2661,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +2669,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2668,7 +2677,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2676,7 +2685,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +2693,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2692,7 +2701,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2700,7 +2709,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2717,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2716,7 +2725,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2724,7 +2733,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +2741,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +2749,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2748,7 +2757,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2756,7 +2765,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2764,7 +2773,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2772,7 +2781,7 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2780,7 +2789,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2797,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2805,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2813,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2821,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2829,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2837,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2845,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2853,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2861,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2869,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2877,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2885,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2893,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2901,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2909,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +2917,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +2925,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +2933,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +2941,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +2949,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +2957,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +2965,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2981,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +2989,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +2997,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +3005,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +3013,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +3021,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +3029,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +3037,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +3045,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +3053,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +3061,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +3069,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +3077,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,7 +3085,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -3084,7 +3093,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3092,7 +3101,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -3100,7 +3109,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3108,7 +3117,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3116,7 +3125,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3124,7 +3133,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3132,7 +3141,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -3140,7 +3149,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3148,7 +3157,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3156,7 +3165,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -3164,7 +3173,7 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3172,7 +3181,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3180,7 +3189,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3188,7 +3197,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3196,7 +3205,7 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3213,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3212,7 +3221,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3220,7 +3229,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3228,7 +3237,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -3236,7 +3245,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -3244,7 +3253,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -3252,7 +3261,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -3260,7 +3269,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3268,7 +3277,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -3276,7 +3285,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -3284,7 +3293,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3292,7 +3301,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -3300,7 +3309,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3308,7 +3317,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3316,7 +3325,7 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,7 +3333,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -3332,7 +3341,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -3340,7 +3349,7 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3348,7 +3357,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3356,7 +3365,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3364,7 +3373,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3372,7 +3381,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3380,7 +3389,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3388,7 +3397,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3396,7 +3405,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3404,7 +3413,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3412,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3420,7 +3429,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3428,7 +3437,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3436,7 +3445,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3444,7 +3453,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3452,7 +3461,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3460,7 +3469,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3468,7 +3477,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3476,7 +3485,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3484,7 +3493,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3492,7 +3501,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3500,7 +3509,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3508,7 +3517,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3516,7 +3525,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3524,7 +3533,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3532,7 +3541,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3540,7 +3549,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3548,7 +3557,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3556,7 +3565,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3564,7 +3573,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3572,7 +3581,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3580,7 +3589,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3588,7 +3597,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,7 +3605,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3604,7 +3613,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3612,7 +3621,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3620,7 +3629,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3628,7 +3637,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3636,7 +3645,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3644,7 +3653,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3652,7 +3661,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3660,7 +3669,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3668,7 +3677,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3676,7 +3685,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3684,7 +3693,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3692,7 +3701,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3700,7 +3709,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3708,7 +3717,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3716,7 +3725,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3724,7 +3733,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3732,7 +3741,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3740,7 +3749,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3748,7 +3757,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3756,7 +3765,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -3764,7 +3773,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -3772,7 +3781,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3780,7 +3789,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -3788,7 +3797,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -3796,7 +3805,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -3804,7 +3813,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -3812,7 +3821,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -3820,7 +3829,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3828,7 +3837,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3836,7 +3845,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -3844,7 +3853,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -3852,7 +3861,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3860,7 +3869,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -3868,7 +3877,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -3876,7 +3885,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -3884,7 +3893,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3892,7 +3901,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -3900,7 +3909,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3908,7 +3917,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -3916,7 +3925,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3924,7 +3933,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3932,7 +3941,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -3940,7 +3949,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -3948,7 +3957,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3956,7 +3965,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -3964,7 +3973,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -3972,7 +3981,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3980,7 +3989,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -3988,7 +3997,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>530</v>
+        <v>561</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -3996,7 +4005,7 @@
         <v>179</v>
       </c>
       <c r="B225" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4004,7 +4013,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>531</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4012,7 +4021,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4020,7 +4029,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4028,7 +4037,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4036,7 +4045,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4044,7 +4053,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4052,7 +4061,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4060,7 +4069,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4068,7 +4077,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4076,7 +4085,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4084,7 +4093,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4092,7 +4101,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4100,7 +4109,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -4108,7 +4117,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4116,7 +4125,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4124,7 +4133,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4132,7 +4141,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4140,7 +4149,7 @@
         <v>25</v>
       </c>
       <c r="B243" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4148,7 +4157,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4156,7 +4165,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4164,7 +4173,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4172,7 +4181,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4180,7 +4189,7 @@
         <v>113</v>
       </c>
       <c r="B248" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4188,7 +4197,7 @@
         <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4196,7 +4205,7 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4204,7 +4213,7 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4212,7 +4221,7 @@
         <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4220,7 +4229,7 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -4228,7 +4237,7 @@
         <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -4236,7 +4245,7 @@
         <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -4244,7 +4253,7 @@
         <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4252,7 +4261,7 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -4260,7 +4269,7 @@
         <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>558</v>
+        <v>589</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4268,7 +4277,7 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4276,7 +4285,7 @@
         <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -4284,7 +4293,7 @@
         <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4292,7 +4301,7 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4300,7 +4309,7 @@
         <v>134</v>
       </c>
       <c r="B263" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4308,7 +4317,7 @@
         <v>135</v>
       </c>
       <c r="B264" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4316,7 +4325,7 @@
         <v>260</v>
       </c>
       <c r="B265" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4324,7 +4333,7 @@
         <v>261</v>
       </c>
       <c r="B266" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4332,7 +4341,7 @@
         <v>262</v>
       </c>
       <c r="B267" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4340,7 +4349,7 @@
         <v>263</v>
       </c>
       <c r="B268" t="s">
-        <v>566</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4348,7 +4357,7 @@
         <v>264</v>
       </c>
       <c r="B269" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4356,7 +4365,7 @@
         <v>265</v>
       </c>
       <c r="B270" t="s">
-        <v>568</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4364,7 +4373,7 @@
         <v>266</v>
       </c>
       <c r="B271" t="s">
-        <v>569</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4372,7 +4381,7 @@
         <v>267</v>
       </c>
       <c r="B272" t="s">
-        <v>570</v>
+        <v>345</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4380,7 +4389,7 @@
         <v>268</v>
       </c>
       <c r="B273" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4388,7 +4397,7 @@
         <v>269</v>
       </c>
       <c r="B274" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4396,7 +4405,7 @@
         <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4404,7 +4413,7 @@
         <v>271</v>
       </c>
       <c r="B276" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4412,7 +4421,7 @@
         <v>272</v>
       </c>
       <c r="B277" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4420,7 +4429,7 @@
         <v>273</v>
       </c>
       <c r="B278" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4428,7 +4437,7 @@
         <v>274</v>
       </c>
       <c r="B279" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4436,7 +4445,7 @@
         <v>275</v>
       </c>
       <c r="B280" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4444,7 +4453,7 @@
         <v>276</v>
       </c>
       <c r="B281" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4452,7 +4461,7 @@
         <v>170</v>
       </c>
       <c r="B282" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4460,7 +4469,7 @@
         <v>277</v>
       </c>
       <c r="B283" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4468,7 +4477,7 @@
         <v>278</v>
       </c>
       <c r="B284" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4476,7 +4485,7 @@
         <v>279</v>
       </c>
       <c r="B285" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4484,7 +4493,7 @@
         <v>280</v>
       </c>
       <c r="B286" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4492,7 +4501,7 @@
         <v>281</v>
       </c>
       <c r="B287" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -4500,7 +4509,7 @@
         <v>282</v>
       </c>
       <c r="B288" t="s">
-        <v>585</v>
+        <v>375</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -4508,7 +4517,7 @@
         <v>283</v>
       </c>
       <c r="B289" t="s">
-        <v>586</v>
+        <v>374</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4516,7 +4525,7 @@
         <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>587</v>
+        <v>373</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -4524,7 +4533,7 @@
         <v>285</v>
       </c>
       <c r="B291" t="s">
-        <v>588</v>
+        <v>372</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -4532,7 +4541,7 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>589</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4540,7 +4549,7 @@
         <v>287</v>
       </c>
       <c r="B293" t="s">
-        <v>590</v>
+        <v>370</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4548,7 +4557,7 @@
         <v>288</v>
       </c>
       <c r="B294" t="s">
-        <v>591</v>
+        <v>369</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -4556,7 +4565,7 @@
         <v>289</v>
       </c>
       <c r="B295" t="s">
-        <v>592</v>
+        <v>368</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4564,7 +4573,7 @@
         <v>290</v>
       </c>
       <c r="B296" t="s">
-        <v>593</v>
+        <v>367</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4572,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>594</v>
+        <v>362</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4580,7 +4589,7 @@
         <v>291</v>
       </c>
       <c r="B298" t="s">
-        <v>595</v>
+        <v>363</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -4588,7 +4597,7 @@
         <v>292</v>
       </c>
       <c r="B299" t="s">
-        <v>596</v>
+        <v>364</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -4596,7 +4605,7 @@
         <v>248</v>
       </c>
       <c r="B300" t="s">
-        <v>597</v>
+        <v>365</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -4604,7 +4613,7 @@
         <v>293</v>
       </c>
       <c r="B301" t="s">
-        <v>598</v>
+        <v>366</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -4612,7 +4621,7 @@
         <v>294</v>
       </c>
       <c r="B302" t="s">
-        <v>599</v>
+        <v>361</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -4620,7 +4629,7 @@
         <v>295</v>
       </c>
       <c r="B303" t="s">
-        <v>600</v>
+        <v>360</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -4628,7 +4637,7 @@
         <v>102</v>
       </c>
       <c r="B304" t="s">
-        <v>601</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -4636,7 +4645,7 @@
         <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>602</v>
+        <v>358</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -4644,7 +4653,7 @@
         <v>296</v>
       </c>
       <c r="B306" t="s">
-        <v>603</v>
+        <v>357</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -4652,7 +4661,7 @@
         <v>297</v>
       </c>
       <c r="B307" t="s">
-        <v>604</v>
+        <v>356</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -4660,7 +4669,7 @@
         <v>298</v>
       </c>
       <c r="B308" t="s">
-        <v>605</v>
+        <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -4668,7 +4677,7 @@
         <v>299</v>
       </c>
       <c r="B309" t="s">
-        <v>606</v>
+        <v>354</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -4676,7 +4685,7 @@
         <v>300</v>
       </c>
       <c r="B310" t="s">
-        <v>607</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -4684,7 +4693,7 @@
         <v>301</v>
       </c>
       <c r="B311" t="s">
-        <v>608</v>
+        <v>352</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -4692,7 +4701,7 @@
         <v>302</v>
       </c>
       <c r="B312" t="s">
-        <v>609</v>
+        <v>351</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -4700,7 +4709,7 @@
         <v>303</v>
       </c>
       <c r="B313" t="s">
-        <v>610</v>
+        <v>350</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -4708,7 +4717,7 @@
         <v>304</v>
       </c>
       <c r="B314" t="s">
-        <v>611</v>
+        <v>349</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -4716,7 +4725,7 @@
         <v>305</v>
       </c>
       <c r="B315" t="s">
-        <v>612</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -4724,7 +4733,7 @@
         <v>306</v>
       </c>
       <c r="B316" t="s">
-        <v>613</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -4732,7 +4741,7 @@
         <v>307</v>
       </c>
       <c r="B317" t="s">
-        <v>614</v>
+        <v>346</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -4740,7 +4749,7 @@
         <v>267</v>
       </c>
       <c r="B318" t="s">
-        <v>570</v>
+        <v>345</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -4748,7 +4757,7 @@
         <v>308</v>
       </c>
       <c r="B319" t="s">
-        <v>615</v>
+        <v>344</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -4756,7 +4765,7 @@
         <v>309</v>
       </c>
       <c r="B320" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
